--- a/Data/EC/NIT-9004386607.xlsx
+++ b/Data/EC/NIT-9004386607.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECEB7A4-EF7B-44C1-86B4-A7CD8AAF1767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A4E378-359B-47FA-A14B-8CCAC773542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E39A5F2A-339B-4396-B9D1-5B6BE2854D03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F9CB537C-123B-4173-A04E-3858C91D6229}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,226 +65,226 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73149373</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE LOPEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1048459974</t>
+  </si>
+  <si>
+    <t>LUISANGEL HENDRIK ALMERA CAGUADO</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1143397322</t>
   </si>
   <si>
     <t>RONALD ENRIQUE LOPEZ WONG</t>
   </si>
   <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1710</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>73149373</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE LOPEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1048459974</t>
-  </si>
-  <si>
-    <t>LUISANGEL HENDRIK ALMERA CAGUADO</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
     <t>64574911</t>
   </si>
   <si>
     <t>LOURDES ESTHER SUAREZ MARTINEZ</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
     <t>1005665568</t>
   </si>
   <si>
     <t>LAURA VANESSA AVILA GARCIA</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1D20FE-8E11-97D5-6C58-38B2B9D0AD05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46452348-4F18-4B68-978E-12CFF5CA39BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18A9CBB-C7BB-42AC-9CB0-4192CE1ED483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628E7CC-6B15-4CC7-A75C-D07B36CCB69F}">
   <dimension ref="B2:J149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1264,13 +1264,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>29520</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>29520</v>
@@ -1310,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>29520</v>
+        <v>26067</v>
       </c>
       <c r="G20" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1333,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G21" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G22" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1379,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G23" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1402,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G24" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1425,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G25" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1448,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G26" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1471,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>31280</v>
@@ -1494,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>31280</v>
@@ -1517,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G29" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G30" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1563,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>31280</v>
@@ -1586,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G32" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1609,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>31280</v>
@@ -1632,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G34" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1655,13 +1655,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31280</v>
@@ -1678,13 +1678,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31280</v>
@@ -1701,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G37" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1724,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G38" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31280</v>
@@ -1770,19 +1770,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G40" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1793,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>31280</v>
@@ -1816,13 +1816,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>31280</v>
@@ -1839,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G43" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1862,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G44" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1885,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>31280</v>
@@ -1908,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>31280</v>
@@ -1931,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G47" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1954,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G48" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1977,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>31280</v>
@@ -2000,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G50" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2023,13 +2023,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>31280</v>
@@ -2046,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>31280</v>
@@ -2069,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G53" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2092,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>31280</v>
@@ -2115,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G55" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2138,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G56" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2161,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>31280</v>
@@ -2184,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>31280</v>
@@ -2207,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G59" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2230,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G60" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2253,13 +2253,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>31280</v>
@@ -2276,19 +2276,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G62" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2299,13 +2299,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>31280</v>
@@ -2322,19 +2322,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G64" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2345,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>31280</v>
@@ -2368,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G66" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2391,13 +2391,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>31280</v>
@@ -2414,19 +2414,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G68" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2437,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>31280</v>
@@ -2460,19 +2460,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G70" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2483,13 +2483,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>31280</v>
@@ -2506,19 +2506,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G72" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2529,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>31280</v>
@@ -2552,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>31280</v>
@@ -2575,19 +2575,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G75" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2598,19 +2598,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G76" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2621,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
         <v>31280</v>
@@ -2644,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F78" s="18">
-        <v>31280</v>
+        <v>26041</v>
       </c>
       <c r="G78" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2667,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2690,19 +2690,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F80" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2713,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2736,19 +2736,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F82" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2759,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2782,19 +2782,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F84" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2805,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2828,19 +2828,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F86" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2851,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2874,13 +2874,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2897,19 +2897,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F89" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2920,19 +2920,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F90" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2943,13 +2943,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2966,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2989,19 +2989,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F93" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3012,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3035,19 +3035,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F95" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3058,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F96" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3081,13 +3081,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3104,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
-        <v>37600</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>940000</v>
+        <v>738000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3127,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3150,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3173,19 +3173,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F101" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3196,13 +3196,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3219,19 +3219,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F103" s="18">
-        <v>30284</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>738000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3242,19 +3242,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F104" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3265,13 +3265,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3288,13 +3288,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3311,19 +3311,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3334,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3357,13 +3357,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3380,19 +3380,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3403,13 +3403,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3426,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3449,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F113" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3472,13 +3472,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3495,19 +3495,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F115" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3518,13 +3518,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3541,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F117" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3564,13 +3564,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3587,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F119" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3610,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3633,19 +3633,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F121" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3656,13 +3656,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3679,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F123" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3702,13 +3702,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3725,19 +3725,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F125" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3748,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F126" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3771,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3794,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F128" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3817,13 +3817,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3840,19 +3840,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F130" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3863,16 +3863,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G131" s="18">
         <v>738000</v>
@@ -3886,16 +3886,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G132" s="18">
         <v>738000</v>
@@ -3909,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F133" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G133" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3932,16 +3932,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G134" s="18">
         <v>738000</v>
@@ -3955,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F135" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G135" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3978,16 +3978,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G136" s="18">
         <v>738000</v>
@@ -4001,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F137" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G137" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4024,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F138" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G138" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4047,16 +4047,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G139" s="18">
         <v>738000</v>
@@ -4070,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F140" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G140" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4093,16 +4093,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G141" s="18">
         <v>738000</v>
@@ -4116,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F142" s="18">
-        <v>26067</v>
+        <v>37600</v>
       </c>
       <c r="G142" s="18">
-        <v>782000</v>
+        <v>940000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4139,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="F143" s="24">
-        <v>26041</v>
+        <v>30284</v>
       </c>
       <c r="G143" s="24">
-        <v>738000</v>
+        <v>1000000</v>
       </c>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>

--- a/Data/EC/NIT-9004386607.xlsx
+++ b/Data/EC/NIT-9004386607.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A4E378-359B-47FA-A14B-8CCAC773542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A1DD94-BDB2-4359-A4EF-E2D21F1ADE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F9CB537C-123B-4173-A04E-3858C91D6229}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{838801D2-B1BC-4219-9C06-FDC7F069CEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,226 +65,226 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143397322</t>
+  </si>
+  <si>
+    <t>RONALD ENRIQUE LOPEZ WONG</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>73149373</t>
   </si>
   <si>
     <t>RAFAEL ENRIQUE LOPEZ SANCHEZ</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
     <t>1048459974</t>
   </si>
   <si>
     <t>LUISANGEL HENDRIK ALMERA CAGUADO</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>64574911</t>
+  </si>
+  <si>
+    <t>LOURDES ESTHER SUAREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1005665568</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA AVILA GARCIA</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1143397322</t>
-  </si>
-  <si>
-    <t>RONALD ENRIQUE LOPEZ WONG</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>64574911</t>
-  </si>
-  <si>
-    <t>LOURDES ESTHER SUAREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1005665568</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA AVILA GARCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -383,7 +383,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -396,9 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -598,23 +598,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,10 +642,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46452348-4F18-4B68-978E-12CFF5CA39BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DA0F16-B471-9040-5B9F-34C3781F0764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628E7CC-6B15-4CC7-A75C-D07B36CCB69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE1486A-3018-4AC0-95E9-0FAD2E4F2CA2}">
   <dimension ref="B2:J149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1230,7 +1230,7 @@
         <v>29520</v>
       </c>
       <c r="G16" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1241,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>29520</v>
@@ -1270,13 +1270,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>29520</v>
       </c>
       <c r="G18" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1287,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>29520</v>
@@ -1310,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>26067</v>
+        <v>29520</v>
       </c>
       <c r="G20" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1333,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G21" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G22" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1379,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G23" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1402,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G24" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1425,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G25" s="18">
-        <v>782000</v>
+        <v>738000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1448,13 +1448,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>31280</v>
@@ -1471,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G27" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1494,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>31280</v>
@@ -1517,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G29" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1540,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>31280</v>
@@ -1563,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G31" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1586,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
         <v>31280</v>
@@ -1609,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G33" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1632,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>31280</v>
@@ -1655,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>31280</v>
+        <v>29520</v>
       </c>
       <c r="G35" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1678,13 +1678,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>31280</v>
@@ -1701,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1724,13 +1724,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>31280</v>
@@ -1747,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1770,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
         <v>31280</v>
@@ -1793,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1816,13 +1816,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
         <v>31280</v>
@@ -1839,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1862,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
         <v>31280</v>
@@ -1885,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1908,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F46" s="18">
         <v>31280</v>
@@ -1931,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1954,13 +1954,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F48" s="18">
         <v>31280</v>
@@ -1977,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2000,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>31280</v>
@@ -2023,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2046,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F52" s="18">
         <v>31280</v>
@@ -2069,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2092,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
         <v>31280</v>
@@ -2115,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F55" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2138,13 +2138,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
         <v>31280</v>
@@ -2161,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2184,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F58" s="18">
         <v>31280</v>
@@ -2207,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2230,13 +2230,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
         <v>31280</v>
@@ -2253,19 +2253,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2276,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
         <v>31280</v>
@@ -2299,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F63" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2322,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
         <v>31280</v>
@@ -2345,19 +2345,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2368,13 +2368,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>31280</v>
@@ -2391,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2414,13 +2414,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F68" s="18">
         <v>31280</v>
@@ -2437,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F69" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2460,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F70" s="18">
         <v>31280</v>
@@ -2483,19 +2483,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2506,13 +2506,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F72" s="18">
         <v>31280</v>
@@ -2529,19 +2529,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F73" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2552,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F74" s="18">
         <v>31280</v>
@@ -2575,19 +2575,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F75" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2598,13 +2598,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F76" s="18">
         <v>31280</v>
@@ -2621,19 +2621,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F77" s="18">
-        <v>31280</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>782000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2644,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
-        <v>26041</v>
+        <v>31280</v>
       </c>
       <c r="G78" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2667,19 +2667,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2690,19 +2690,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G80" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2713,19 +2713,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2736,19 +2736,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G82" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2759,19 +2759,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2782,19 +2782,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G84" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2805,19 +2805,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2828,19 +2828,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G86" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2851,19 +2851,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2874,19 +2874,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G88" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2897,19 +2897,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2920,19 +2920,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G90" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2943,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2966,19 +2966,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G92" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2989,19 +2989,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3012,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G94" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3035,19 +3035,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3058,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G96" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3081,19 +3081,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3104,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>37600</v>
       </c>
       <c r="G98" s="18">
-        <v>738000</v>
+        <v>980000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3127,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G99" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3150,19 +3150,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3173,19 +3173,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G101" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3196,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3219,19 +3219,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>30284</v>
       </c>
       <c r="G103" s="18">
-        <v>738000</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3242,19 +3242,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G104" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3265,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3288,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G106" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3311,19 +3311,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3334,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G108" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3357,19 +3357,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3380,19 +3380,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G110" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3403,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3426,19 +3426,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G112" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3449,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3472,19 +3472,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G114" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3495,19 +3495,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3518,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G116" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3541,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3564,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G118" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3587,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3610,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G120" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3633,19 +3633,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3656,19 +3656,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G122" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3679,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3702,19 +3702,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G124" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3725,19 +3725,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3748,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G126" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3771,19 +3771,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F127" s="18">
         <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3794,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D128" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G128" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3817,19 +3817,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E129" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F129" s="18">
         <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3840,19 +3840,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>31280</v>
       </c>
       <c r="G130" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3863,19 +3863,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F131" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3886,19 +3886,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F132" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G132" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3909,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F133" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3932,19 +3932,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F134" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G134" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3955,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F135" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3978,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F136" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G136" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4001,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F137" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4024,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F138" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G138" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4047,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F139" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4070,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F140" s="18">
-        <v>29520</v>
+        <v>31280</v>
       </c>
       <c r="G140" s="18">
-        <v>738000</v>
+        <v>782000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4093,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F141" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4116,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F142" s="18">
-        <v>37600</v>
+        <v>26067</v>
       </c>
       <c r="G142" s="18">
-        <v>940000</v>
+        <v>782000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4139,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E143" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="F143" s="24">
-        <v>30284</v>
+        <v>26041</v>
       </c>
       <c r="G143" s="24">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
